--- a/hobby projects.xlsx
+++ b/hobby projects.xlsx
@@ -1,26 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23906"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C9F5E0-E733-4BE3-A967-602920F7F569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hot in industry" sheetId="1" r:id="rId1"/>
+    <sheet name="Skills to aquire" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Technologies popular in industry</t>
+  </si>
+  <si>
+    <t>Linux hands on</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Test automation using scripting</t>
+  </si>
+  <si>
+    <t>Front end development</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,15 +72,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +94,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +419,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F223899-9AF5-4E32-A253-2CC5765CA898}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>